--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F350926-B292-FD4E-A54B-DA300981343C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C4FB4-92F0-A748-B6BA-8461B5D1FE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="280" yWindow="460" windowWidth="28240" windowHeight="16240" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="260" yWindow="480" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
     <t>Erlaubnis Vorgabe Bemessungsleistung oPL</t>
   </si>
   <si>
-    <t>aktuelle Leistung pL [in %]</t>
+    <t xml:space="preserve">aktuelle Leistung pL </t>
   </si>
 </sst>
 </file>
@@ -127,12 +127,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -447,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,14 +512,14 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>30</v>
+        <v>95</v>
       </c>
       <c r="E2">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <f>15*D2</f>
-        <v>450</v>
+        <v>1425</v>
       </c>
       <c r="G2">
         <v>33</v>
@@ -539,7 +545,7 @@
         <v>20</v>
       </c>
       <c r="E3">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="F3">
         <f t="shared" ref="F3:F9" si="0">15*D3</f>
@@ -569,7 +575,7 @@
         <v>50</v>
       </c>
       <c r="E4">
-        <v>70</v>
+        <v>-0.7</v>
       </c>
       <c r="F4">
         <f t="shared" si="0"/>
@@ -599,7 +605,7 @@
         <v>70</v>
       </c>
       <c r="E5">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
@@ -629,7 +635,7 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
@@ -659,7 +665,7 @@
         <v>100</v>
       </c>
       <c r="E7">
-        <v>60</v>
+        <v>-0.6</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
@@ -686,14 +692,14 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>0.3</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>3000</v>
+        <v>4500</v>
       </c>
       <c r="G8">
         <v>33</v>
@@ -742,8 +748,18 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="H13" s="3"/>
     </row>
-    <row r="20" spans="12:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
       <c r="L20" s="2"/>
+    </row>
+    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C4FB4-92F0-A748-B6BA-8461B5D1FE58}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDC742-DDEE-B148-9E52-D8506F6A26ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="260" yWindow="480" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="2780" yWindow="3080" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -456,7 +456,7 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BBDC742-DDEE-B148-9E52-D8506F6A26ED}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF407E6-F0C3-7E41-A86D-D56E8B08C26B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="3080" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Leitung l</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">aktuelle Leistung pL </t>
+  </si>
+  <si>
+    <t>Leitungswiderstand RL</t>
   </si>
 </sst>
 </file>
@@ -453,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="D10" sqref="D10:J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -465,14 +468,14 @@
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
     <col min="4" max="4" width="21" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.1640625" customWidth="1"/>
-    <col min="8" max="8" width="37.1640625" customWidth="1"/>
-    <col min="9" max="9" width="36.83203125" customWidth="1"/>
+    <col min="5" max="6" width="21.83203125" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="37.1640625" customWidth="1"/>
+    <col min="10" max="10" width="36.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -489,19 +492,22 @@
         <v>8</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -518,20 +524,23 @@
         <v>1</v>
       </c>
       <c r="F2">
+        <v>5</v>
+      </c>
+      <c r="G2">
         <f>15*D2</f>
         <v>1425</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>33</v>
       </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
@@ -548,20 +557,23 @@
         <v>0.5</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F9" si="0">15*D3</f>
+        <v>6</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G9" si="0">15*D3</f>
         <v>300</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>33</v>
       </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -578,20 +590,23 @@
         <v>-0.7</v>
       </c>
       <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
         <f t="shared" si="0"/>
         <v>750</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>33</v>
       </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -608,20 +623,23 @@
         <v>0.2</v>
       </c>
       <c r="F5">
+        <v>7</v>
+      </c>
+      <c r="G5">
         <f t="shared" si="0"/>
         <v>1050</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>33</v>
       </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
@@ -638,20 +656,23 @@
         <v>0.1</v>
       </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>33</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -668,20 +689,23 @@
         <v>-0.6</v>
       </c>
       <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
         <f t="shared" si="0"/>
         <v>1500</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>33</v>
       </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
       <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
@@ -698,20 +722,23 @@
         <v>0.3</v>
       </c>
       <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
         <v>4500</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>33</v>
       </c>
-      <c r="H8">
-        <v>0</v>
-      </c>
       <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
@@ -728,38 +755,77 @@
         <v>0</v>
       </c>
       <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>33</v>
       </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
       <c r="I9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ref="G10" si="1">15*D10</f>
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>33</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="H13" s="3"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I13" s="3"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-    </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.2">
-      <c r="L20" s="2"/>
-    </row>
-    <row r="28" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
+    </row>
+    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M20" s="2"/>
+    </row>
+    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FF407E6-F0C3-7E41-A86D-D56E8B08C26B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3922710-6294-0243-9698-1A88B90B5F7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -67,7 +67,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -82,12 +82,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF25992D"/>
-      <name val="Courier"/>
-      <family val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -130,11 +124,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -456,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -476,34 +469,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -560,7 +553,7 @@
         <v>6</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G9" si="0">15*D3</f>
+        <f t="shared" ref="G3:G8" si="0">15*D3</f>
         <v>300</v>
       </c>
       <c r="H3">
@@ -749,17 +742,17 @@
         <v>9</v>
       </c>
       <c r="D9">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>150</v>
+        <f t="shared" ref="G9:G10" si="1">15*D9</f>
+        <v>4500</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -776,23 +769,23 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10">
-        <v>10</v>
+        <v>400</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G10">
-        <f t="shared" ref="G10" si="1">15*D10</f>
-        <v>150</v>
+        <f t="shared" si="1"/>
+        <v>6000</v>
       </c>
       <c r="H10">
         <v>33</v>
@@ -804,28 +797,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I13" s="3"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="20" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M20" s="2"/>
-    </row>
-    <row r="28" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D28" s="6"/>
-      <c r="E28" s="6"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="6"/>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="M19" s="1"/>
+    </row>
+    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
+      <c r="F27" s="5"/>
+      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3922710-6294-0243-9698-1A88B90B5F7A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F83B340-F539-CB44-8684-178E4286AAD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -452,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F83B340-F539-CB44-8684-178E4286AAD3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E9CF0-6A73-1640-88CA-1EDDC6E3AF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -453,7 +452,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +511,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>95</v>
+        <v>500</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -522,7 +521,7 @@
       </c>
       <c r="G2">
         <f>15*D2</f>
-        <v>1425</v>
+        <v>7500</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -545,7 +544,7 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>500</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -555,7 +554,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="0">15*D3</f>
-        <v>300</v>
+        <v>7500</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -578,7 +577,7 @@
         <v>4</v>
       </c>
       <c r="D4">
-        <v>50</v>
+        <v>400</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -588,7 +587,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>6000</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -644,7 +643,7 @@
         <v>6</v>
       </c>
       <c r="D6">
-        <v>10</v>
+        <v>300</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -654,7 +653,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>150</v>
+        <v>4500</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -677,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>100</v>
+        <v>400</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -687,7 +686,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1500</v>
+        <v>6000</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -710,7 +709,7 @@
         <v>8</v>
       </c>
       <c r="D8">
-        <v>300</v>
+        <v>600</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -720,7 +719,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>9000</v>
       </c>
       <c r="H8">
         <v>33</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10715"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7E9CF0-6A73-1640-88CA-1EDDC6E3AF0C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D75C1E-36F5-0148-B81F-B56D9A012566}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="560" yWindow="440" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -135,6 +135,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -452,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,17 +512,17 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>58</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>6.33245608</v>
       </c>
       <c r="G2">
         <f>15*D2</f>
-        <v>7500</v>
+        <v>870</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -544,17 +545,17 @@
         <v>3</v>
       </c>
       <c r="D3">
-        <v>500</v>
+        <v>72</v>
       </c>
       <c r="E3">
         <v>0.5</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>5.9615434240000003</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="0">15*D3</f>
-        <v>7500</v>
+        <v>1080</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -576,18 +577,18 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4">
-        <v>400</v>
+      <c r="D4" s="6">
+        <v>304</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>5.1429563480000002</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>4560</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -610,17 +611,17 @@
         <v>5</v>
       </c>
       <c r="D5">
-        <v>70</v>
+        <v>2.7</v>
       </c>
       <c r="E5">
         <v>0.2</v>
       </c>
       <c r="F5">
-        <v>7</v>
+        <v>5.8600341299999998</v>
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1050</v>
+        <v>40.5</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -642,18 +643,18 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6">
-        <v>300</v>
+      <c r="D6" s="6">
+        <v>101</v>
       </c>
       <c r="E6">
         <v>0.1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>5.371219601</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>4500</v>
+        <v>1515</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -675,18 +676,18 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7">
-        <v>400</v>
+      <c r="D7" s="6">
+        <v>101</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>4.860041152</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>6000</v>
+        <v>1515</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -708,18 +709,18 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8">
-        <v>600</v>
+      <c r="D8" s="6">
+        <v>540</v>
       </c>
       <c r="E8">
         <v>0.3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4.6324939289999998</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>9000</v>
+        <v>8100</v>
       </c>
       <c r="H8">
         <v>33</v>
@@ -741,18 +742,18 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9">
-        <v>300</v>
+      <c r="D9" s="6">
+        <v>200</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>5.4378304499999999</v>
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G10" si="1">15*D9</f>
-        <v>4500</v>
+        <v>3000</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -774,18 +775,18 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10">
-        <v>400</v>
+      <c r="D10" s="6">
+        <v>200</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>9</v>
+        <v>6.2177166230000003</v>
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>6000</v>
+        <v>3000</v>
       </c>
       <c r="H10">
         <v>33</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40D75C1E-36F5-0148-B81F-B56D9A012566}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F54E9-F4CB-DD43-9694-06ACB193C9D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="440" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -511,8 +511,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>58</v>
+      <c r="D2" s="6">
+        <v>10000000</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G2">
         <f>15*D2</f>
-        <v>870</v>
+        <v>150000000</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -544,8 +544,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3">
-        <v>72</v>
+      <c r="D3" s="6">
+        <v>10000000</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="0">15*D3</f>
-        <v>1080</v>
+        <v>150000000</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>304</v>
+        <v>10000000</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>4560</v>
+        <v>150000000</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -610,8 +610,8 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>2.7</v>
+      <c r="D5" s="6">
+        <v>10000000</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>40.5</v>
+        <v>150000000</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6">
-        <v>101</v>
+        <v>10000000</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>1515</v>
+        <v>150000000</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="6">
-        <v>101</v>
+        <v>10000000</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>1515</v>
+        <v>150000000</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>540</v>
+        <v>10000000</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>8100</v>
+        <v>150000000</v>
       </c>
       <c r="H8">
         <v>33</v>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="6">
-        <v>200</v>
+        <v>10000000</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G10" si="1">15*D9</f>
-        <v>3000</v>
+        <v>150000000</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>200</v>
+        <v>10000000</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>3000</v>
+        <v>150000000</v>
       </c>
       <c r="H10">
         <v>33</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{866F54E9-F4CB-DD43-9694-06ACB193C9D5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FBB08-A2F4-AA4B-8D85-601A4A7F7CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="440" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="G2">
         <f>15*D2</f>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -555,7 +555,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G8" si="0">15*D3</f>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H8">
         <v>33</v>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -753,7 +753,7 @@
       </c>
       <c r="G9">
         <f t="shared" ref="G9:G10" si="1">15*D9</f>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>10000000</v>
+        <v>1000000</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -786,7 +786,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="1"/>
-        <v>150000000</v>
+        <v>15000000</v>
       </c>
       <c r="H10">
         <v>33</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601FBB08-A2F4-AA4B-8D85-601A4A7F7CB7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD43417B-F28B-BC4F-B0C3-EE7F24BD5504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="440" windowWidth="28240" windowHeight="16220" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -42,15 +42,6 @@
     <t>Endknoten kL2</t>
   </si>
   <si>
-    <t>Bemessungsleistung PL</t>
-  </si>
-  <si>
-    <t>Fixkosten CL</t>
-  </si>
-  <si>
-    <t>variable Kosten cL</t>
-  </si>
-  <si>
     <t>Erlaubnis Vorgabe Bemessungsleistung oKL</t>
   </si>
   <si>
@@ -61,6 +52,15 @@
   </si>
   <si>
     <t>Leitungswiderstand RL</t>
+  </si>
+  <si>
+    <t>variable Kosten cL [€/kWh]</t>
+  </si>
+  <si>
+    <t>Fixkosten CL [€/Jahr]</t>
+  </si>
+  <si>
+    <t>Bemessungsleistung PL [kW]</t>
   </si>
 </sst>
 </file>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I14" sqref="H14:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -461,10 +461,10 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
-    <col min="4" max="4" width="21" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
     <col min="5" max="6" width="21.83203125" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" customWidth="1"/>
+    <col min="8" max="8" width="24.1640625" customWidth="1"/>
     <col min="9" max="9" width="37.1640625" customWidth="1"/>
     <col min="10" max="10" width="36.83203125" customWidth="1"/>
   </cols>
@@ -480,25 +480,25 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -512,7 +512,7 @@
         <v>2</v>
       </c>
       <c r="D2" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -521,8 +521,8 @@
         <v>6.33245608</v>
       </c>
       <c r="G2">
-        <f>15*D2</f>
-        <v>15000000</v>
+        <f>F2*D2</f>
+        <v>4432719.2560000001</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -545,7 +545,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -554,8 +554,8 @@
         <v>5.9615434240000003</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G8" si="0">15*D3</f>
-        <v>15000000</v>
+        <f t="shared" ref="G3:G10" si="0">F3*D3</f>
+        <v>4173080.3968000002</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -578,7 +578,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -588,7 +588,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>15000000</v>
+        <v>3600069.4436000003</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -611,7 +611,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -621,7 +621,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>15000000</v>
+        <v>4102023.8909999998</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -644,7 +644,7 @@
         <v>6</v>
       </c>
       <c r="D6" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -654,7 +654,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>15000000</v>
+        <v>3759853.7206999999</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -677,7 +677,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -687,7 +687,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>15000000</v>
+        <v>3402028.8064000001</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -710,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -720,7 +720,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>15000000</v>
+        <v>3242745.7503</v>
       </c>
       <c r="H8">
         <v>33</v>
@@ -743,7 +743,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -752,8 +752,8 @@
         <v>5.4378304499999999</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G10" si="1">15*D9</f>
-        <v>15000000</v>
+        <f t="shared" si="0"/>
+        <v>3806481.3149999999</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -776,7 +776,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="6">
-        <v>1000000</v>
+        <v>700000</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -785,8 +785,8 @@
         <v>6.2177166230000003</v>
       </c>
       <c r="G10">
-        <f t="shared" si="1"/>
-        <v>15000000</v>
+        <f t="shared" si="0"/>
+        <v>4352401.6360999998</v>
       </c>
       <c r="H10">
         <v>33</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD43417B-F28B-BC4F-B0C3-EE7F24BD5504}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF5CF8-9AEB-9442-8230-941B6F5F911F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="520" yWindow="1560" windowWidth="28800" windowHeight="16440" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -453,7 +453,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="H14:I17"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BF5CF8-9AEB-9442-8230-941B6F5F911F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11027FC-B530-7E45-9C57-10D33CE35207}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="520" yWindow="1560" windowWidth="28800" windowHeight="16440" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16440" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +67,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -91,6 +95,13 @@
     </font>
     <font>
       <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -121,8 +132,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -135,9 +147,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Komma" xfId="1" builtinId="3"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,8 +465,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D11027FC-B530-7E45-9C57-10D33CE35207}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E729226-FFFA-9148-B276-20940FD2EE49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="16440" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -81,20 +81,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Courier"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <u/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -134,19 +120,11 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -463,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -483,34 +461,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="3" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -524,7 +502,7 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="2">
         <v>700000</v>
       </c>
       <c r="E2">
@@ -557,7 +535,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="2">
         <v>700000</v>
       </c>
       <c r="E3">
@@ -590,7 +568,7 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="2">
         <v>700000</v>
       </c>
       <c r="E4">
@@ -623,7 +601,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="2">
         <v>700000</v>
       </c>
       <c r="E5">
@@ -656,7 +634,7 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="2">
         <v>700000</v>
       </c>
       <c r="E6">
@@ -689,7 +667,7 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="2">
         <v>700000</v>
       </c>
       <c r="E7">
@@ -722,7 +700,7 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="2">
         <v>700000</v>
       </c>
       <c r="E8">
@@ -755,7 +733,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="2">
         <v>700000</v>
       </c>
       <c r="E9">
@@ -788,7 +766,7 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="2">
         <v>700000</v>
       </c>
       <c r="E10">
@@ -810,24 +788,6 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="19" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="M19" s="1"/>
-    </row>
-    <row r="27" spans="4:13" x14ac:dyDescent="0.2">
-      <c r="D27" s="5"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E729226-FFFA-9148-B276-20940FD2EE49}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B68A7-518C-2B45-ADEB-CB4B5D575FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="16260" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
@@ -67,9 +67,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
+    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -122,10 +123,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -441,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -502,8 +506,8 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="2">
-        <v>700000</v>
+      <c r="D2" s="5">
+        <v>516150</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -513,7 +517,7 @@
       </c>
       <c r="G2">
         <f>F2*D2</f>
-        <v>4432719.2560000001</v>
+        <v>3268497.2056920002</v>
       </c>
       <c r="H2">
         <v>33</v>
@@ -535,8 +539,8 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="2">
-        <v>700000</v>
+      <c r="D3" s="5">
+        <v>497900</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -546,7 +550,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G10" si="0">F3*D3</f>
-        <v>4173080.3968000002</v>
+        <v>2968252.4708096003</v>
       </c>
       <c r="H3">
         <v>33</v>
@@ -568,8 +572,8 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="2">
-        <v>700000</v>
+      <c r="D4" s="5">
+        <v>493631</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -579,7 +583,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>3600069.4436000003</v>
+        <v>2538722.6850195881</v>
       </c>
       <c r="H4">
         <v>33</v>
@@ -601,8 +605,8 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="2">
-        <v>700000</v>
+      <c r="D5" s="5">
+        <v>485976.92328059423</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -612,7 +616,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>4102023.8909999998</v>
+        <v>2847841.3568166737</v>
       </c>
       <c r="H5">
         <v>33</v>
@@ -634,8 +638,8 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="2">
-        <v>700000</v>
+      <c r="D6" s="5">
+        <v>500010</v>
       </c>
       <c r="E6">
         <v>0.1</v>
@@ -645,7 +649,7 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>3759853.7206999999</v>
+        <v>2685663.5126960101</v>
       </c>
       <c r="H6">
         <v>33</v>
@@ -667,8 +671,8 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="2">
-        <v>700000</v>
+      <c r="D7" s="5">
+        <v>100010</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -678,7 +682,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>3402028.8064000001</v>
+        <v>486052.71561151999</v>
       </c>
       <c r="H7">
         <v>33</v>
@@ -700,8 +704,8 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="2">
-        <v>700000</v>
+      <c r="D8" s="5">
+        <v>536700</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -711,7 +715,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>3242745.7503</v>
+        <v>2486259.4916943</v>
       </c>
       <c r="H8">
         <v>33</v>
@@ -733,8 +737,8 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="2">
-        <v>700000</v>
+      <c r="D9" s="5">
+        <v>213310</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -744,7 +748,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>3806481.3149999999</v>
+        <v>1159943.6132894999</v>
       </c>
       <c r="H9">
         <v>33</v>
@@ -766,8 +770,8 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
-        <v>700000</v>
+      <c r="D10" s="5">
+        <v>213310</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -777,7 +781,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>4352401.6360999998</v>
+        <v>1326301.1328521301</v>
       </c>
       <c r="H10">
         <v>33</v>
@@ -788,6 +792,51 @@
       <c r="J10">
         <v>1</v>
       </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E13" s="3"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E14" s="3"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E15" s="3"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E16" s="3"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E17" s="3"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="4"/>
+    </row>
+    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E18" s="3"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="4"/>
+    </row>
+    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E19" s="3"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E20" s="3"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
+      <c r="E21" s="3"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1B68A7-518C-2B45-ADEB-CB4B5D575FDC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFAFEC-7C32-D442-A818-B38012D6E0EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -67,9 +67,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="0.00_ ;\-0.00\ "/>
     <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
@@ -123,12 +122,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -445,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -506,7 +502,7 @@
       <c r="C2">
         <v>2</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="2">
         <v>516150</v>
       </c>
       <c r="E2">
@@ -520,7 +516,7 @@
         <v>3268497.2056920002</v>
       </c>
       <c r="H2">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -539,7 +535,7 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="2">
         <v>497900</v>
       </c>
       <c r="E3">
@@ -553,7 +549,7 @@
         <v>2968252.4708096003</v>
       </c>
       <c r="H3">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -572,7 +568,7 @@
       <c r="C4">
         <v>4</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="2">
         <v>493631</v>
       </c>
       <c r="E4">
@@ -586,7 +582,7 @@
         <v>2538722.6850195881</v>
       </c>
       <c r="H4">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -605,7 +601,7 @@
       <c r="C5">
         <v>5</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="2">
         <v>485976.92328059423</v>
       </c>
       <c r="E5">
@@ -619,7 +615,7 @@
         <v>2847841.3568166737</v>
       </c>
       <c r="H5">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -638,7 +634,7 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="2">
         <v>500010</v>
       </c>
       <c r="E6">
@@ -652,7 +648,7 @@
         <v>2685663.5126960101</v>
       </c>
       <c r="H6">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -671,7 +667,7 @@
       <c r="C7">
         <v>7</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="2">
         <v>100010</v>
       </c>
       <c r="E7">
@@ -685,7 +681,7 @@
         <v>486052.71561151999</v>
       </c>
       <c r="H7">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -704,7 +700,7 @@
       <c r="C8">
         <v>8</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="2">
         <v>536700</v>
       </c>
       <c r="E8">
@@ -718,7 +714,7 @@
         <v>2486259.4916943</v>
       </c>
       <c r="H8">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -737,7 +733,7 @@
       <c r="C9">
         <v>9</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="2">
         <v>213310</v>
       </c>
       <c r="E9">
@@ -751,7 +747,7 @@
         <v>1159943.6132894999</v>
       </c>
       <c r="H9">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -770,7 +766,7 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="2">
         <v>213310</v>
       </c>
       <c r="E10">
@@ -784,7 +780,7 @@
         <v>1326301.1328521301</v>
       </c>
       <c r="H10">
-        <v>33</v>
+        <v>0.01</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -792,51 +788,6 @@
       <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E13" s="3"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E14" s="3"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E15" s="3"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E16" s="3"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E17" s="3"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E18" s="3"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E19" s="3"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E20" s="3"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="4"/>
-    </row>
-    <row r="21" spans="5:7" x14ac:dyDescent="0.2">
-      <c r="E21" s="3"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FFAFEC-7C32-D442-A818-B38012D6E0EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C5AEB-EB8E-6B40-A64D-112FBFD0945D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -69,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="0_ ;\-0\ "/>
+    <numFmt numFmtId="164" formatCode="0_ ;\-0\ "/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -125,7 +125,7 @@
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>100010</v>
+        <v>420010</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>486052.71561151999</v>
+        <v>2041265.88425152</v>
       </c>
       <c r="H7">
         <v>0.01</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4C5AEB-EB8E-6B40-A64D-112FBFD0945D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C364BB7-F564-0141-A5ED-8095F2A164B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -545,7 +545,7 @@
         <v>5.9615434240000003</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G10" si="0">F3*D3</f>
+        <f t="shared" ref="G3:G12" si="0">F3*D3</f>
         <v>2968252.4708096003</v>
       </c>
       <c r="H3">
@@ -569,7 +569,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="2">
-        <v>493631</v>
+        <v>500000</v>
       </c>
       <c r="E4">
         <v>-0.7</v>
@@ -579,7 +579,7 @@
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>2538722.6850195881</v>
+        <v>2571478.1740000001</v>
       </c>
       <c r="H4">
         <v>0.01</v>
@@ -602,7 +602,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="2">
-        <v>485976.92328059423</v>
+        <v>500000</v>
       </c>
       <c r="E5">
         <v>0.2</v>
@@ -612,7 +612,7 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>2847841.3568166737</v>
+        <v>2930017.0649999999</v>
       </c>
       <c r="H5">
         <v>0.01</v>
@@ -668,7 +668,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2">
-        <v>420010</v>
+        <v>500010</v>
       </c>
       <c r="E7">
         <v>-0.6</v>
@@ -678,7 +678,7 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>2041265.88425152</v>
+        <v>2430069.1764115198</v>
       </c>
       <c r="H7">
         <v>0.01</v>
@@ -734,7 +734,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>213310</v>
+        <v>400000</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -744,7 +744,7 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>1159943.6132894999</v>
+        <v>2175132.1800000002</v>
       </c>
       <c r="H9">
         <v>0.01</v>
@@ -767,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>213310</v>
+        <v>400000</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -777,7 +777,7 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>1326301.1328521301</v>
+        <v>2487086.6492000003</v>
       </c>
       <c r="H10">
         <v>0.01</v>
@@ -786,6 +786,72 @@
         <v>0</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>5</v>
+      </c>
+      <c r="D11" s="2">
+        <v>400000</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>5</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>2000000</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>7</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>2100000</v>
+      </c>
+      <c r="H12">
+        <v>0.01</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
         <v>1</v>
       </c>
     </row>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C364BB7-F564-0141-A5ED-8095F2A164B7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F009D9D-3DED-5348-966B-3641EC98722C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="20" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>536700</v>
+        <v>500010</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2486259.4916943</v>
+        <v>2316293.2894392898</v>
       </c>
       <c r="H8">
         <v>0.01</v>
@@ -797,7 +797,7 @@
         <v>7</v>
       </c>
       <c r="C11">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
         <v>400000</v>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F009D9D-3DED-5348-966B-3641EC98722C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD04D29-3E95-E946-ABDF-8A3A4819DD16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1320" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="20" yWindow="1300" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
@@ -441,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{660CDFC1-36C3-6D4A-97C5-40145D00575F}">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -632,7 +632,7 @@
         <v>3</v>
       </c>
       <c r="C6">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D6" s="2">
         <v>500010</v>
@@ -701,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="2">
-        <v>500010</v>
+        <v>600000</v>
       </c>
       <c r="E8">
         <v>0.3</v>
@@ -711,7 +711,7 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>2316293.2894392898</v>
+        <v>2779496.3574000001</v>
       </c>
       <c r="H8">
         <v>0.01</v>
@@ -794,10 +794,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D11" s="2">
         <v>400000</v>
@@ -852,6 +852,38 @@
         <v>0</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" s="2">
+        <v>300000</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>9</v>
+      </c>
+      <c r="G13">
+        <v>1800000</v>
+      </c>
+      <c r="H13">
+        <v>0.01</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
         <v>1</v>
       </c>
     </row>

--- a/data/Leitungstabelle.xlsx
+++ b/data/Leitungstabelle.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lars/Documents/MATLAB/Netzsimulation/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD04D29-3E95-E946-ABDF-8A3A4819DD16}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD748A04-60EE-C34B-A3A1-BB5363EE05F9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="1300" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
+    <workbookView xWindow="0" yWindow="1300" windowWidth="28800" windowHeight="10960" xr2:uid="{109839D1-D567-AA4B-87D7-F86B2B8F67E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Leitungstabelle" sheetId="1" r:id="rId1"/>
@@ -444,7 +444,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:D13"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +536,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="2">
-        <v>497900</v>
+        <v>150000</v>
       </c>
       <c r="E3">
         <v>0.5</v>
@@ -546,7 +546,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G12" si="0">F3*D3</f>
-        <v>2968252.4708096003</v>
+        <v>894231.51360000006</v>
       </c>
       <c r="H3">
         <v>0.01</v>
